--- a/output_from_pDMASBT /data_tables_from_pDMASBT /stats_analysis_output_mean_pDMASBT .xlsx
+++ b/output_from_pDMASBT /data_tables_from_pDMASBT /stats_analysis_output_mean_pDMASBT .xlsx
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,16 +492,16 @@
         <v>0.25</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3.36435</v>
+        <v>2.9293</v>
       </c>
       <c r="E4">
-        <v>0.002012853423494468</v>
+        <v>0.000498117568277781</v>
       </c>
       <c r="F4">
-        <v>0.000651232315814911</v>
+        <v>0.0004862602574954199</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -510,38 +510,38 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <v>0.001303881477824433</v>
+        <v>-0.0003216464559540102</v>
       </c>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0.9</v>
       </c>
       <c r="L4">
-        <v>0.001811568081145022</v>
+        <v>0.0004483058114500029</v>
       </c>
       <c r="M4">
-        <v>2.495011598043748E-07</v>
+        <v>2.18319484711521E-07</v>
       </c>
       <c r="N4">
-        <v>0.01277300977541739</v>
+        <v>0.003455326371182412</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
-        <v>3.17225</v>
+        <v>2.58375</v>
       </c>
       <c r="E5">
-        <v>0.001171360066532954</v>
+        <v>0.000994274928476498</v>
       </c>
       <c r="F5">
-        <v>0.001350831303837255</v>
+        <v>0.001119207706415594</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -550,7 +550,7 @@
         <v>3</v>
       </c>
       <c r="I5">
-        <v>-0.0002992387881247454</v>
+        <v>-0.0008925463759997822</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -559,29 +559,29 @@
         <v>0.9</v>
       </c>
       <c r="L5">
-        <v>0.001054224059879659</v>
+        <v>0.0008948474356288483</v>
       </c>
       <c r="M5">
-        <v>2.03011305021214E-08</v>
+        <v>9.275332975458006E-06</v>
       </c>
       <c r="N5">
-        <v>0.005597656276256179</v>
+        <v>0.2002023630539403</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
-        <v>2.9293</v>
+        <v>2.1089</v>
       </c>
       <c r="E6">
-        <v>0.000498117568277781</v>
+        <v>0.001828903051025963</v>
       </c>
       <c r="F6">
-        <v>0.0004862602574954199</v>
+        <v>0.0002268532929512324</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -590,38 +590,40 @@
         <v>3</v>
       </c>
       <c r="I6">
-        <v>-3.125554863695379E-05</v>
+        <v>0.001446461415146051</v>
       </c>
       <c r="J6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>0.9</v>
       </c>
       <c r="L6">
-        <v>0.0004483058114500029</v>
+        <v>0.001646012745923367</v>
       </c>
       <c r="M6">
-        <v>2.18319484711521E-07</v>
+        <v>8.02713498282824E-07</v>
       </c>
       <c r="N6">
-        <v>0.003455326371182412</v>
+        <v>0.008053462230132919</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1">
+        <v>0.5</v>
+      </c>
       <c r="C7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>2.58375</v>
+        <v>2.9293</v>
       </c>
       <c r="E7">
-        <v>0.000994274928476498</v>
+        <v>0.001909131674827568</v>
       </c>
       <c r="F7">
-        <v>0.001119207706415594</v>
+        <v>0.0007339623963838431</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -630,38 +632,38 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>-0.00022416409237191</v>
+        <v>0.0006717778947891169</v>
       </c>
       <c r="J7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>0.9</v>
       </c>
       <c r="L7">
-        <v>0.0008948474356288483</v>
+        <v>0.001718218507344811</v>
       </c>
       <c r="M7">
-        <v>9.275332975458006E-06</v>
+        <v>2.18319484711521E-07</v>
       </c>
       <c r="N7">
-        <v>0.2002023630539403</v>
+        <v>0.003455326371182412</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>2.1089</v>
+        <v>2.58375</v>
       </c>
       <c r="E8">
-        <v>0.001828903051025963</v>
+        <v>0.006088886476683176</v>
       </c>
       <c r="F8">
-        <v>0.0002268532929512324</v>
+        <v>0.001109035674578727</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -670,7 +672,7 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.00158193646693679</v>
+        <v>0.004219213737454966</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -679,29 +681,29 @@
         <v>0.9</v>
       </c>
       <c r="L8">
-        <v>0.001646012745923367</v>
+        <v>0.005479997829014859</v>
       </c>
       <c r="M8">
-        <v>8.02713498282824E-07</v>
+        <v>9.275332975458006E-06</v>
       </c>
       <c r="N8">
-        <v>0.008053462230132919</v>
+        <v>0.2002023630539403</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>1.51995</v>
+        <v>2.1089</v>
       </c>
       <c r="E9">
-        <v>1.418278407319097E-05</v>
+        <v>0.004766585894295019</v>
       </c>
       <c r="F9">
-        <v>0.0002482265378415087</v>
+        <v>0.0006290443319270138</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -710,40 +712,40 @@
         <v>3</v>
       </c>
       <c r="I9">
-        <v>-0.0002560520418509707</v>
+        <v>0.003706108701244661</v>
       </c>
       <c r="J9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>0.9</v>
       </c>
       <c r="L9">
-        <v>1.276450566587187E-05</v>
+        <v>0.004289927304865517</v>
       </c>
       <c r="M9">
-        <v>2.514531778287351E-06</v>
+        <v>8.02713498282824E-07</v>
       </c>
       <c r="N9">
-        <v>0.006045472778839108</v>
+        <v>0.008053462230132919</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>3.36435</v>
+        <v>2.9293</v>
       </c>
       <c r="E10">
-        <v>0.0001986852507937779</v>
+        <v>0.002150104256919929</v>
       </c>
       <c r="F10">
-        <v>0.002184859218071787</v>
+        <v>0.0006903699361050633</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -752,38 +754,38 @@
         <v>3</v>
       </c>
       <c r="I10">
-        <v>-0.002179888191024971</v>
+        <v>0.000986241020501802</v>
       </c>
       <c r="J10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>0.9</v>
       </c>
       <c r="L10">
-        <v>0.0001788167257144001</v>
+        <v>0.001935093831227936</v>
       </c>
       <c r="M10">
-        <v>2.495011598043748E-07</v>
+        <v>2.18319484711521E-07</v>
       </c>
       <c r="N10">
-        <v>0.01277300977541739</v>
+        <v>0.003455326371182412</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>3.17225</v>
+        <v>2.58375</v>
       </c>
       <c r="E11">
-        <v>-3.488632020329779E-05</v>
+        <v>0.003358305226124828</v>
       </c>
       <c r="F11">
-        <v>0.001401276237226498</v>
+        <v>0.001866276493625247</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -792,38 +794,38 @@
         <v>3</v>
       </c>
       <c r="I11">
-        <v>-0.001490630021970994</v>
+        <v>0.0002120346741707872</v>
       </c>
       <c r="J11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>0.9</v>
       </c>
       <c r="L11">
-        <v>-3.139768818296801E-05</v>
+        <v>0.003022474703512345</v>
       </c>
       <c r="M11">
-        <v>2.03011305021214E-08</v>
+        <v>9.275332975458006E-06</v>
       </c>
       <c r="N11">
-        <v>0.005597656276256179</v>
+        <v>0.2002023630539403</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1">
-        <v>2.9293</v>
+        <v>2.1089</v>
       </c>
       <c r="E12">
-        <v>0.001909131674827568</v>
+        <v>0.0061028363004746</v>
       </c>
       <c r="F12">
-        <v>0.0007339623963838431</v>
+        <v>0.0005740242995043239</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -832,7 +834,7 @@
         <v>3</v>
       </c>
       <c r="I12">
-        <v>0.00111009462525832</v>
+        <v>0.00513511487452004</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -841,29 +843,31 @@
         <v>0.9</v>
       </c>
       <c r="L12">
-        <v>0.001718218507344811</v>
+        <v>0.00549255267042714</v>
       </c>
       <c r="M12">
-        <v>2.18319484711521E-07</v>
+        <v>8.02713498282824E-07</v>
       </c>
       <c r="N12">
-        <v>0.003455326371182412</v>
+        <v>0.008053462230132919</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
       <c r="C13" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1">
-        <v>2.58375</v>
+        <v>2.9293</v>
       </c>
       <c r="E13">
-        <v>0.006088886476683176</v>
+        <v>0.002609494772516083</v>
       </c>
       <c r="F13">
-        <v>0.001109035674578727</v>
+        <v>0.0007791178361692747</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -872,7 +876,7 @@
         <v>3</v>
       </c>
       <c r="I13">
-        <v>0.004881521361455954</v>
+        <v>0.001296015492883805</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
@@ -881,29 +885,29 @@
         <v>0.9</v>
       </c>
       <c r="L13">
-        <v>0.005479997829014859</v>
+        <v>0.002348545295264475</v>
       </c>
       <c r="M13">
-        <v>9.275332975458006E-06</v>
+        <v>2.18319484711521E-07</v>
       </c>
       <c r="N13">
-        <v>0.2002023630539403</v>
+        <v>0.003455326371182412</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1">
-        <v>2.1089</v>
+        <v>2.58375</v>
       </c>
       <c r="E14">
-        <v>0.004766585894295019</v>
+        <v>0.004519487839274302</v>
       </c>
       <c r="F14">
-        <v>0.0006290443319270138</v>
+        <v>0.002546388483432046</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -912,7 +916,7 @@
         <v>3</v>
       </c>
       <c r="I14">
-        <v>0.004081769165934514</v>
+        <v>0.0002266474554282021</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -921,29 +925,29 @@
         <v>0.9</v>
       </c>
       <c r="L14">
-        <v>0.004289927304865517</v>
+        <v>0.004067539055346872</v>
       </c>
       <c r="M14">
-        <v>8.02713498282824E-07</v>
+        <v>9.275332975458006E-06</v>
       </c>
       <c r="N14">
-        <v>0.008053462230132919</v>
+        <v>0.2002023630539403</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1">
-        <v>1.51995</v>
+        <v>2.1089</v>
       </c>
       <c r="E15">
-        <v>0.002956824115662757</v>
+        <v>0.008333496260319539</v>
       </c>
       <c r="F15">
-        <v>0.0006021296209354187</v>
+        <v>0.0005484549544867756</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -952,7 +956,7 @@
         <v>3</v>
       </c>
       <c r="I15">
-        <v>0.00230130841330398</v>
+        <v>0.007408881028723777</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
@@ -961,31 +965,31 @@
         <v>0.9</v>
       </c>
       <c r="L15">
-        <v>0.002661141704096482</v>
+        <v>0.007500146634287586</v>
       </c>
       <c r="M15">
-        <v>2.514531778287351E-06</v>
+        <v>8.02713498282824E-07</v>
       </c>
       <c r="N15">
-        <v>0.006045472778839108</v>
+        <v>0.008053462230132919</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1">
-        <v>3.36435</v>
+        <v>2.9293</v>
       </c>
       <c r="E16">
-        <v>0.002061987441496654</v>
+        <v>0.002754980372355012</v>
       </c>
       <c r="F16">
-        <v>0.001693225670291884</v>
+        <v>0.001423437187753638</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -994,7 +998,7 @@
         <v>3</v>
       </c>
       <c r="I16">
-        <v>0.0002186368141201234</v>
+        <v>0.0003552724396434915</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
@@ -1003,29 +1007,29 @@
         <v>0.9</v>
       </c>
       <c r="L16">
-        <v>0.001855788697346989</v>
+        <v>0.002479482335119511</v>
       </c>
       <c r="M16">
-        <v>2.495011598043748E-07</v>
+        <v>2.18319484711521E-07</v>
       </c>
       <c r="N16">
-        <v>0.01277300977541739</v>
+        <v>0.003455326371182412</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1">
-        <v>3.17225</v>
+        <v>2.58375</v>
       </c>
       <c r="E17">
-        <v>0.001686218283630464</v>
+        <v>0.002597458375425838</v>
       </c>
       <c r="F17">
-        <v>0.0008222543590650369</v>
+        <v>0.003461449948680919</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1034,38 +1038,38 @@
         <v>3</v>
       </c>
       <c r="I17">
-        <v>0.0007910611198577576</v>
+        <v>-0.003238042461560257</v>
       </c>
       <c r="J17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0.9</v>
       </c>
       <c r="L17">
-        <v>0.001517596455267418</v>
+        <v>0.002337712537883254</v>
       </c>
       <c r="M17">
-        <v>2.03011305021214E-08</v>
+        <v>9.275332975458006E-06</v>
       </c>
       <c r="N17">
-        <v>0.005597656276256179</v>
+        <v>0.2002023630539403</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1">
-        <v>2.9293</v>
+        <v>2.1089</v>
       </c>
       <c r="E18">
-        <v>0.002150104256919929</v>
+        <v>0.009214668536659235</v>
       </c>
       <c r="F18">
-        <v>0.0006903699361050633</v>
+        <v>0.001246214207889283</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1074,7 +1078,7 @@
         <v>3</v>
       </c>
       <c r="I18">
-        <v>0.001398524667046484</v>
+        <v>0.007113732755116826</v>
       </c>
       <c r="J18" t="b">
         <v>1</v>
@@ -1083,29 +1087,31 @@
         <v>0.9</v>
       </c>
       <c r="L18">
-        <v>0.001935093831227936</v>
+        <v>0.008293201682993311</v>
       </c>
       <c r="M18">
-        <v>2.18319484711521E-07</v>
+        <v>8.02713498282824E-07</v>
       </c>
       <c r="N18">
-        <v>0.003455326371182412</v>
+        <v>0.008053462230132919</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1">
+        <v>1.5</v>
+      </c>
       <c r="C19" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="1">
-        <v>2.58375</v>
+        <v>2.9293</v>
       </c>
       <c r="E19">
-        <v>0.003358305226124828</v>
+        <v>0.003322109170005711</v>
       </c>
       <c r="F19">
-        <v>0.001866276493625247</v>
+        <v>0.001454560759328276</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1114,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="I19">
-        <v>0.001326560724643737</v>
+        <v>0.0008699314253175624</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
@@ -1123,29 +1129,29 @@
         <v>0.9</v>
       </c>
       <c r="L19">
-        <v>0.003022474703512345</v>
+        <v>0.00298989825300514</v>
       </c>
       <c r="M19">
-        <v>9.275332975458006E-06</v>
+        <v>2.18319484711521E-07</v>
       </c>
       <c r="N19">
-        <v>0.2002023630539403</v>
+        <v>0.003455326371182412</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="1">
-        <v>2.1089</v>
+        <v>2.58375</v>
       </c>
       <c r="E20">
-        <v>0.0061028363004746</v>
+        <v>0.004424929628582096</v>
       </c>
       <c r="F20">
-        <v>0.0005740242995043239</v>
+        <v>0.001048517724163854</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1154,7 +1160,7 @@
         <v>3</v>
       </c>
       <c r="I20">
-        <v>0.005477917796588308</v>
+        <v>0.002657281346022183</v>
       </c>
       <c r="J20" t="b">
         <v>1</v>
@@ -1163,29 +1169,29 @@
         <v>0.9</v>
       </c>
       <c r="L20">
-        <v>0.00549255267042714</v>
+        <v>0.003982436665723886</v>
       </c>
       <c r="M20">
-        <v>8.02713498282824E-07</v>
+        <v>9.275332975458006E-06</v>
       </c>
       <c r="N20">
-        <v>0.008053462230132919</v>
+        <v>0.2002023630539403</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1">
-        <v>1.51995</v>
+        <v>2.1089</v>
       </c>
       <c r="E21">
-        <v>0.001708862201696845</v>
+        <v>0.01109936578512949</v>
       </c>
       <c r="F21">
-        <v>0.001084715473670012</v>
+        <v>0.0004757470593614607</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -1194,7 +1200,7 @@
         <v>3</v>
       </c>
       <c r="I21">
-        <v>0.0005279735676555445</v>
+        <v>0.01029732548286961</v>
       </c>
       <c r="J21" t="b">
         <v>1</v>
@@ -1203,31 +1209,31 @@
         <v>0.9</v>
       </c>
       <c r="L21">
-        <v>0.00153797598152716</v>
+        <v>0.009989429206616539</v>
       </c>
       <c r="M21">
-        <v>2.514531778287351E-06</v>
+        <v>8.02713498282824E-07</v>
       </c>
       <c r="N21">
-        <v>0.006045472778839108</v>
+        <v>0.008053462230132919</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="C22" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1">
-        <v>3.36435</v>
+        <v>2.9293</v>
       </c>
       <c r="E22">
-        <v>0.002622866065690822</v>
+        <v>0.003913437105244637</v>
       </c>
       <c r="F22">
-        <v>0.001020320144723607</v>
+        <v>0.001420224122406668</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1236,7 +1242,7 @@
         <v>3</v>
       </c>
       <c r="I22">
-        <v>0.001512082186199465</v>
+        <v>0.001519145933081303</v>
       </c>
       <c r="J22" t="b">
         <v>1</v>
@@ -1245,29 +1251,29 @@
         <v>0.9</v>
       </c>
       <c r="L22">
-        <v>0.00236057945912174</v>
+        <v>0.003522093394720174</v>
       </c>
       <c r="M22">
-        <v>2.495011598043748E-07</v>
+        <v>2.18319484711521E-07</v>
       </c>
       <c r="N22">
-        <v>0.01277300977541739</v>
+        <v>0.003455326371182412</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1">
-        <v>3.17225</v>
+        <v>2.58375</v>
       </c>
       <c r="E23">
-        <v>0.001781447216373135</v>
+        <v>0.007691307630309816</v>
       </c>
       <c r="F23">
-        <v>0.0003949967873628784</v>
+        <v>0.001504163863587847</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -1276,7 +1282,7 @@
         <v>3</v>
       </c>
       <c r="I23">
-        <v>0.001351429181227494</v>
+        <v>0.005155506271033757</v>
       </c>
       <c r="J23" t="b">
         <v>1</v>
@@ -1285,29 +1291,29 @@
         <v>0.9</v>
       </c>
       <c r="L23">
-        <v>0.001603302494735821</v>
+        <v>0.006922176867278835</v>
       </c>
       <c r="M23">
-        <v>2.03011305021214E-08</v>
+        <v>9.275332975458006E-06</v>
       </c>
       <c r="N23">
-        <v>0.005597656276256179</v>
+        <v>0.2002023630539403</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1">
-        <v>2.9293</v>
+        <v>2.1089</v>
       </c>
       <c r="E24">
-        <v>0.002609494772516083</v>
+        <v>0.01326925055707508</v>
       </c>
       <c r="F24">
-        <v>0.0007791178361692747</v>
+        <v>0.0007352818473164884</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1316,7 +1322,7 @@
         <v>3</v>
       </c>
       <c r="I24">
-        <v>0.001761298706686711</v>
+        <v>0.01202967237479596</v>
       </c>
       <c r="J24" t="b">
         <v>1</v>
@@ -1325,872 +1331,26 @@
         <v>0.9</v>
       </c>
       <c r="L24">
-        <v>0.002348545295264475</v>
+        <v>0.01194232550136757</v>
       </c>
       <c r="M24">
-        <v>2.18319484711521E-07</v>
+        <v>8.02713498282824E-07</v>
       </c>
       <c r="N24">
-        <v>0.003455326371182412</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1">
-        <v>5</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2.58375</v>
-      </c>
-      <c r="E25">
-        <v>0.004519487839274302</v>
-      </c>
-      <c r="F25">
-        <v>0.002546388483432046</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25">
-        <v>0.001747331185359596</v>
-      </c>
-      <c r="J25" t="b">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>0.9</v>
-      </c>
-      <c r="L25">
-        <v>0.004067539055346872</v>
-      </c>
-      <c r="M25">
-        <v>9.275332975458006E-06</v>
-      </c>
-      <c r="N25">
-        <v>0.2002023630539403</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2.1089</v>
-      </c>
-      <c r="E26">
-        <v>0.008333496260319539</v>
-      </c>
-      <c r="F26">
-        <v>0.0005484549544867756</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-      <c r="I26">
-        <v>0.007736414133477767</v>
-      </c>
-      <c r="J26" t="b">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>0.9</v>
-      </c>
-      <c r="L26">
-        <v>0.007500146634287586</v>
-      </c>
-      <c r="M26">
-        <v>8.02713498282824E-07</v>
-      </c>
-      <c r="N26">
         <v>0.008053462230132919</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1">
-        <v>7</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1.51995</v>
-      </c>
-      <c r="E27">
-        <v>0.003084597344080554</v>
-      </c>
-      <c r="F27">
-        <v>0.00158434222537512</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
-        <v>3</v>
-      </c>
-      <c r="I27">
-        <v>0.001359783997362918</v>
-      </c>
-      <c r="J27" t="b">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>0.9</v>
-      </c>
-      <c r="L27">
-        <v>0.002776137609672498</v>
-      </c>
-      <c r="M27">
-        <v>2.514531778287351E-06</v>
-      </c>
-      <c r="N27">
-        <v>0.006045472778839108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1">
-        <v>3.36435</v>
-      </c>
-      <c r="E28">
-        <v>0.002697747344586698</v>
-      </c>
-      <c r="F28">
-        <v>0.002236525108361099</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-      <c r="H28">
-        <v>3</v>
-      </c>
-      <c r="I28">
-        <v>0.0002629272057388683</v>
-      </c>
-      <c r="J28" t="b">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>0.9</v>
-      </c>
-      <c r="L28">
-        <v>0.002427972610128029</v>
-      </c>
-      <c r="M28">
-        <v>2.495011598043748E-07</v>
-      </c>
-      <c r="N28">
-        <v>0.01277300977541739</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1">
-        <v>3.17225</v>
-      </c>
-      <c r="E29">
-        <v>0.001962556077330838</v>
-      </c>
-      <c r="F29">
-        <v>0.000543824936996966</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="I29">
-        <v>0.001370514475089152</v>
-      </c>
-      <c r="J29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>0.9</v>
-      </c>
-      <c r="L29">
-        <v>0.001766300469597755</v>
-      </c>
-      <c r="M29">
-        <v>2.03011305021214E-08</v>
-      </c>
-      <c r="N29">
-        <v>0.005597656276256179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1">
-        <v>4</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2.9293</v>
-      </c>
-      <c r="E30">
-        <v>0.002754980372355012</v>
-      </c>
-      <c r="F30">
-        <v>0.001423437187753638</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="I30">
-        <v>0.001205338243066695</v>
-      </c>
-      <c r="J30" t="b">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>0.9</v>
-      </c>
-      <c r="L30">
-        <v>0.002479482335119511</v>
-      </c>
-      <c r="M30">
-        <v>2.18319484711521E-07</v>
-      </c>
-      <c r="N30">
-        <v>0.003455326371182412</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1">
-        <v>5</v>
-      </c>
-      <c r="D31" s="1">
-        <v>2.58375</v>
-      </c>
-      <c r="E31">
-        <v>0.002597458375425838</v>
-      </c>
-      <c r="F31">
-        <v>0.003461449948680919</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="H31">
-        <v>3</v>
-      </c>
-      <c r="I31">
-        <v>-0.001170891022108108</v>
-      </c>
-      <c r="J31" t="b">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0.9</v>
-      </c>
-      <c r="L31">
-        <v>0.002337712537883254</v>
-      </c>
-      <c r="M31">
-        <v>9.275332975458006E-06</v>
-      </c>
-      <c r="N31">
-        <v>0.2002023630539403</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1">
-        <v>6</v>
-      </c>
-      <c r="D32" s="1">
-        <v>2.1089</v>
-      </c>
-      <c r="E32">
-        <v>0.009214668536659235</v>
-      </c>
-      <c r="F32">
-        <v>0.001246214207889283</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32">
-        <v>3</v>
-      </c>
-      <c r="I32">
-        <v>0.007857962350199012</v>
-      </c>
-      <c r="J32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>0.9</v>
-      </c>
-      <c r="L32">
-        <v>0.008293201682993311</v>
-      </c>
-      <c r="M32">
-        <v>8.02713498282824E-07</v>
-      </c>
-      <c r="N32">
-        <v>0.008053462230132919</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1">
-        <v>7</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1.51995</v>
-      </c>
-      <c r="E33">
-        <v>0.001967358959004048</v>
-      </c>
-      <c r="F33">
-        <v>0.001522387563912044</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
-        <v>3</v>
-      </c>
-      <c r="I33">
-        <v>0.0003099933046292616</v>
-      </c>
-      <c r="J33" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>0.9</v>
-      </c>
-      <c r="L33">
-        <v>0.001770623063103643</v>
-      </c>
-      <c r="M33">
-        <v>2.514531778287351E-06</v>
-      </c>
-      <c r="N33">
-        <v>0.006045472778839108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="C34" s="1">
-        <v>2</v>
-      </c>
-      <c r="D34" s="1">
-        <v>3.36435</v>
-      </c>
-      <c r="E34">
-        <v>0.002817139803377543</v>
-      </c>
-      <c r="F34">
-        <v>0.001609097055994799</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>0.00106537681057669</v>
-      </c>
-      <c r="J34" t="b">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>0.9</v>
-      </c>
-      <c r="L34">
-        <v>0.002535425823039789</v>
-      </c>
-      <c r="M34">
-        <v>2.495011598043748E-07</v>
-      </c>
-      <c r="N34">
-        <v>0.01277300977541739</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1">
-        <v>3</v>
-      </c>
-      <c r="D35" s="1">
-        <v>3.17225</v>
-      </c>
-      <c r="E35">
-        <v>0.001846935489927448</v>
-      </c>
-      <c r="F35">
-        <v>0.001546241477983482</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-      <c r="H35">
-        <v>3</v>
-      </c>
-      <c r="I35">
-        <v>0.0001636009831778975</v>
-      </c>
-      <c r="J35" t="b">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>0.9</v>
-      </c>
-      <c r="L35">
-        <v>0.001662241940934703</v>
-      </c>
-      <c r="M35">
-        <v>2.03011305021214E-08</v>
-      </c>
-      <c r="N35">
-        <v>0.005597656276256179</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1">
-        <v>4</v>
-      </c>
-      <c r="D36" s="1">
-        <v>2.9293</v>
-      </c>
-      <c r="E36">
-        <v>0.003322109170005711</v>
-      </c>
-      <c r="F36">
-        <v>0.001454560759328276</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-      <c r="H36">
-        <v>3</v>
-      </c>
-      <c r="I36">
-        <v>0.001738583987681458</v>
-      </c>
-      <c r="J36" t="b">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>0.9</v>
-      </c>
-      <c r="L36">
-        <v>0.00298989825300514</v>
-      </c>
-      <c r="M36">
-        <v>2.18319484711521E-07</v>
-      </c>
-      <c r="N36">
-        <v>0.003455326371182412</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1">
-        <v>5</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2.58375</v>
-      </c>
-      <c r="E37">
-        <v>0.004424929628582096</v>
-      </c>
-      <c r="F37">
-        <v>0.001048517724163854</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-      <c r="H37">
-        <v>3</v>
-      </c>
-      <c r="I37">
-        <v>0.003283448112819538</v>
-      </c>
-      <c r="J37" t="b">
-        <v>1</v>
-      </c>
-      <c r="K37">
-        <v>0.9</v>
-      </c>
-      <c r="L37">
-        <v>0.003982436665723886</v>
-      </c>
-      <c r="M37">
-        <v>9.275332975458006E-06</v>
-      </c>
-      <c r="N37">
-        <v>0.2002023630539403</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1">
-        <v>6</v>
-      </c>
-      <c r="D38" s="1">
-        <v>2.1089</v>
-      </c>
-      <c r="E38">
-        <v>0.01109936578512949</v>
-      </c>
-      <c r="F38">
-        <v>0.0004757470593614607</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="H38">
-        <v>3</v>
-      </c>
-      <c r="I38">
-        <v>0.01058143798865608</v>
-      </c>
-      <c r="J38" t="b">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>0.9</v>
-      </c>
-      <c r="L38">
-        <v>0.009989429206616539</v>
-      </c>
-      <c r="M38">
-        <v>8.02713498282824E-07</v>
-      </c>
-      <c r="N38">
-        <v>0.008053462230132919</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1">
-        <v>7</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1.51995</v>
-      </c>
-      <c r="E39">
-        <v>0.003216697156403309</v>
-      </c>
-      <c r="F39">
-        <v>0.0006814095075846532</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39">
-        <v>3</v>
-      </c>
-      <c r="I39">
-        <v>0.002474872445530614</v>
-      </c>
-      <c r="J39" t="b">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>0.9</v>
-      </c>
-      <c r="L39">
-        <v>0.002895027440762978</v>
-      </c>
-      <c r="M39">
-        <v>2.514531778287351E-06</v>
-      </c>
-      <c r="N39">
-        <v>0.006045472778839108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1">
-        <v>1.75</v>
-      </c>
-      <c r="C40" s="1">
-        <v>2</v>
-      </c>
-      <c r="D40" s="1">
-        <v>3.36435</v>
-      </c>
-      <c r="E40">
-        <v>0.001588149878586071</v>
-      </c>
-      <c r="F40">
-        <v>0.002322379077151278</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40">
-        <v>3</v>
-      </c>
-      <c r="I40">
-        <v>-0.0009401362228967692</v>
-      </c>
-      <c r="J40" t="b">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0.9</v>
-      </c>
-      <c r="L40">
-        <v>0.001429334890727464</v>
-      </c>
-      <c r="M40">
-        <v>2.495011598043748E-07</v>
-      </c>
-      <c r="N40">
-        <v>0.01277300977541739</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1">
-        <v>3</v>
-      </c>
-      <c r="D41" s="1">
-        <v>3.17225</v>
-      </c>
-      <c r="E41">
-        <v>0.001769466291818823</v>
-      </c>
-      <c r="F41">
-        <v>0.001390783171838385</v>
-      </c>
-      <c r="G41">
-        <v>2</v>
-      </c>
-      <c r="H41">
-        <v>3</v>
-      </c>
-      <c r="I41">
-        <v>0.0002553733523283251</v>
-      </c>
-      <c r="J41" t="b">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>0.9</v>
-      </c>
-      <c r="L41">
-        <v>0.001592519662636941</v>
-      </c>
-      <c r="M41">
-        <v>2.03011305021214E-08</v>
-      </c>
-      <c r="N41">
-        <v>0.005597656276256179</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1">
-        <v>4</v>
-      </c>
-      <c r="D42" s="1">
-        <v>2.9293</v>
-      </c>
-      <c r="E42">
-        <v>0.003913437105244637</v>
-      </c>
-      <c r="F42">
-        <v>0.001420224122406668</v>
-      </c>
-      <c r="G42">
-        <v>2</v>
-      </c>
-      <c r="H42">
-        <v>3</v>
-      </c>
-      <c r="I42">
-        <v>0.002367292918449785</v>
-      </c>
-      <c r="J42" t="b">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>0.9</v>
-      </c>
-      <c r="L42">
-        <v>0.003522093394720174</v>
-      </c>
-      <c r="M42">
-        <v>2.18319484711521E-07</v>
-      </c>
-      <c r="N42">
-        <v>0.003455326371182412</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1">
-        <v>5</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2.58375</v>
-      </c>
-      <c r="E43">
-        <v>0.007691307630309816</v>
-      </c>
-      <c r="F43">
-        <v>0.001504163863587847</v>
-      </c>
-      <c r="G43">
-        <v>2</v>
-      </c>
-      <c r="H43">
-        <v>3</v>
-      </c>
-      <c r="I43">
-        <v>0.006053781427943774</v>
-      </c>
-      <c r="J43" t="b">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>0.9</v>
-      </c>
-      <c r="L43">
-        <v>0.006922176867278835</v>
-      </c>
-      <c r="M43">
-        <v>9.275332975458006E-06</v>
-      </c>
-      <c r="N43">
-        <v>0.2002023630539403</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1">
-        <v>6</v>
-      </c>
-      <c r="D44" s="1">
-        <v>2.1089</v>
-      </c>
-      <c r="E44">
-        <v>0.01326925055707508</v>
-      </c>
-      <c r="F44">
-        <v>0.0007352818473164884</v>
-      </c>
-      <c r="G44">
-        <v>2</v>
-      </c>
-      <c r="H44">
-        <v>3</v>
-      </c>
-      <c r="I44">
-        <v>0.01246877707127222</v>
-      </c>
-      <c r="J44" t="b">
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <v>0.9</v>
-      </c>
-      <c r="L44">
-        <v>0.01194232550136757</v>
-      </c>
-      <c r="M44">
-        <v>8.02713498282824E-07</v>
-      </c>
-      <c r="N44">
-        <v>0.008053462230132919</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1">
-        <v>7</v>
-      </c>
-      <c r="D45" s="1">
-        <v>1.51995</v>
-      </c>
-      <c r="E45">
-        <v>0.00386013502103277</v>
-      </c>
-      <c r="F45">
-        <v>0.001127740195786802</v>
-      </c>
-      <c r="G45">
-        <v>3</v>
-      </c>
-      <c r="H45">
-        <v>4</v>
-      </c>
-      <c r="I45">
-        <v>0.002936659950005072</v>
-      </c>
-      <c r="J45" t="b">
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <v>0.9</v>
-      </c>
-      <c r="L45">
-        <v>0.003474121518929493</v>
-      </c>
-      <c r="M45">
-        <v>2.514531778287351E-06</v>
-      </c>
-      <c r="N45">
-        <v>0.006045472778839108</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A4:A45"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="A4:A24"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
